--- a/Day-20-Sprint-1-Submission/Day 20 - Sprint 1 Submission.xlsx
+++ b/Day-20-Sprint-1-Submission/Day 20 - Sprint 1 Submission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RIKU\Internship\CRM_SALESFORCE_TASK\Assignments\Day-20-Sprint-1-Submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C236C4-2265-426B-BA4D-208D7D73077E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B03BB9-F265-4F41-96D3-5D02A1C6AE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="15196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -456,10 +456,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -659,7 +659,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="12.85" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -749,14 +749,14 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="32.85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>97</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
@@ -772,10 +772,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="37.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>99</v>
@@ -791,10 +791,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="38.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>102</v>
@@ -810,10 +810,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>105</v>
@@ -829,10 +829,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="26.85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>108</v>
@@ -1002,7 +1002,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1022,7 +1022,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1040,7 +1040,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="43.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1058,7 +1058,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="46.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1076,7 +1076,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1094,7 +1094,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1109,7 +1109,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="13"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1127,7 +1127,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1147,7 +1147,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="33.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="13"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1165,7 +1165,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1185,7 +1185,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="13"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
@@ -1203,7 +1203,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="13"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
@@ -1341,7 +1341,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="8" customFormat="1" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1361,7 +1361,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1379,7 +1379,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
@@ -1397,7 +1397,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1415,7 +1415,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -1433,7 +1433,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
@@ -1451,7 +1451,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="8" t="s">
         <v>23</v>
       </c>
@@ -1469,7 +1469,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="13"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="8" t="s">
         <v>27</v>
       </c>
@@ -1503,7 +1503,7 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1523,7 +1523,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="13"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
@@ -1541,7 +1541,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1561,7 +1561,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="13"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="2" t="s">
         <v>37</v>
       </c>
@@ -1579,7 +1579,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="13"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
